--- a/public/assets/template/Database Konversi.xlsx
+++ b/public/assets/template/Database Konversi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\final_chapter\public\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREPARE SKRIPSI\DATA SKRIPSI\MATERIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AA3F46-4675-41A7-B232-5B19734540B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0064FE9E-D3B9-4170-A46D-E1E2E00CAF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3A7C63B-33DB-49B7-B2E8-281B8D5D8B4B}"/>
   </bookViews>
@@ -25,21 +25,327 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>PART NO</t>
-  </si>
-  <si>
-    <t>BUPPIN</t>
-  </si>
-  <si>
-    <t>PART NAME</t>
-  </si>
-  <si>
-    <t>UOM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
   <si>
     <t>INNER PACKING</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Meter</t>
+  </si>
+  <si>
+    <t>STOPPER BAND</t>
+  </si>
+  <si>
+    <t>430E72530</t>
+  </si>
+  <si>
+    <t>GROMMET SEAL ADHESIVE</t>
+  </si>
+  <si>
+    <t>430M319A0</t>
+  </si>
+  <si>
+    <t>430FM19S1</t>
+  </si>
+  <si>
+    <t>911P3X-10R</t>
+  </si>
+  <si>
+    <t>ARON ALPHA</t>
+  </si>
+  <si>
+    <t>4304B1930</t>
+  </si>
+  <si>
+    <t>430G119S1</t>
+  </si>
+  <si>
+    <t>4307S1930</t>
+  </si>
+  <si>
+    <t>4307J1930</t>
+  </si>
+  <si>
+    <t>430CA5031</t>
+  </si>
+  <si>
+    <t>4307J2530</t>
+  </si>
+  <si>
+    <t>430FM25S1</t>
+  </si>
+  <si>
+    <t>430C019A0</t>
+  </si>
+  <si>
+    <t>430G1197C</t>
+  </si>
+  <si>
+    <t>450562959A0</t>
+  </si>
+  <si>
+    <t>TUBE NHCFR</t>
+  </si>
+  <si>
+    <t>450562975A0</t>
+  </si>
+  <si>
+    <t>0033-1122</t>
+  </si>
+  <si>
+    <t>BTNA-B 21</t>
+  </si>
+  <si>
+    <t>CAT NO.9</t>
+  </si>
+  <si>
+    <t>GREASE CATNO.9</t>
+  </si>
+  <si>
+    <t>S-PAT FROST 0.217X10X50 B</t>
+  </si>
+  <si>
+    <t>S-PATC 0.217X10X50 GY</t>
+  </si>
+  <si>
+    <t>S-PATC 0.217X10X50 L</t>
+  </si>
+  <si>
+    <t>S-PATC 0.217X10X50 W</t>
+  </si>
+  <si>
+    <t>PAT-J 45 B</t>
+  </si>
+  <si>
+    <t>PAT 0.09X12X30 B</t>
+  </si>
+  <si>
+    <t>PATC-BR 12X50</t>
+  </si>
+  <si>
+    <t>PATC-G 12X50</t>
+  </si>
+  <si>
+    <t>PATC-GY 12X50</t>
+  </si>
+  <si>
+    <t>PATC-L 12X50</t>
+  </si>
+  <si>
+    <t>PATC-LG 12X50</t>
+  </si>
+  <si>
+    <t>PATC-O 12X50</t>
+  </si>
+  <si>
+    <t>PATC-P 12X50</t>
+  </si>
+  <si>
+    <t>PATC-SB 12X50</t>
+  </si>
+  <si>
+    <t>PATC-TR 12</t>
+  </si>
+  <si>
+    <t>PATC-V 12X50</t>
+  </si>
+  <si>
+    <t>PATC-W 12X50</t>
+  </si>
+  <si>
+    <t>PATC-Y 12X50</t>
+  </si>
+  <si>
+    <t>PATHC-FR 0.090X12X28 DGY</t>
+  </si>
+  <si>
+    <t>PAT 0.100X10X13 B</t>
+  </si>
+  <si>
+    <t>PAT-FR 0.1X12X13 B</t>
+  </si>
+  <si>
+    <t>PAT-FR 0.1X13X13 B</t>
+  </si>
+  <si>
+    <t>0017-4192</t>
+  </si>
+  <si>
+    <t>0017-4193</t>
+  </si>
+  <si>
+    <t>QA-3112</t>
+  </si>
+  <si>
+    <t>1172-4562-QA</t>
+  </si>
+  <si>
+    <t>1172-4563-QA</t>
+  </si>
+  <si>
+    <t>1140-7095-KE</t>
+  </si>
+  <si>
+    <t>1140-2005-KE</t>
+  </si>
+  <si>
+    <t>1140-2003-KE</t>
+  </si>
+  <si>
+    <t>AVTHA 12B</t>
+  </si>
+  <si>
+    <t>7790FRTV 33 DGY</t>
+  </si>
+  <si>
+    <t>PESI51036 12 B</t>
+  </si>
+  <si>
+    <t>7790FRTV 45 DGY</t>
+  </si>
+  <si>
+    <t>ND2001-TR 09</t>
+  </si>
+  <si>
+    <t>T03121985 B</t>
+  </si>
+  <si>
+    <t>PAT 0.09X13X21 B</t>
+  </si>
+  <si>
+    <t>LL-T 27</t>
+  </si>
+  <si>
+    <t>NHTAC-AR 12</t>
+  </si>
+  <si>
+    <t>130901 12 B</t>
+  </si>
+  <si>
+    <t>0613-2002</t>
+  </si>
+  <si>
+    <t>PAT 0.07X9X18 B</t>
+  </si>
+  <si>
+    <t>PAT 0.07X17X18 B</t>
+  </si>
+  <si>
+    <t>PATC-HR 12 AR</t>
+  </si>
+  <si>
+    <t>PATHC-HR 12 CY</t>
+  </si>
+  <si>
+    <t>ASRCF AR D01</t>
+  </si>
+  <si>
+    <t>ASRCF AR D02</t>
+  </si>
+  <si>
+    <t>110M11900</t>
+  </si>
+  <si>
+    <t>SATUAN</t>
+  </si>
+  <si>
+    <t>PEREKAT</t>
+  </si>
+  <si>
+    <t>PEREKAT PAT SLIT B</t>
+  </si>
+  <si>
+    <t>PEREKAT PAT SLIT Gy</t>
+  </si>
+  <si>
+    <t>PEREKAT PAT SLIT L</t>
+  </si>
+  <si>
+    <t>PEREKAT PAT SLIT W</t>
+  </si>
+  <si>
+    <t>PEREKAT PAT B 22x30 t=0.09</t>
+  </si>
+  <si>
+    <t>PEREKAT PAT B 10x25 t=0.1</t>
+  </si>
+  <si>
+    <t>PEREKAT PATC</t>
+  </si>
+  <si>
+    <t>PEREKAT PATC P0.13x22x31</t>
+  </si>
+  <si>
+    <t>PEREKAT PATC W0.13x22x31</t>
+  </si>
+  <si>
+    <t>PEREKAT PATC Y0.13x22x31</t>
+  </si>
+  <si>
+    <t>PEREKAT PAT FLAMER ETARDANT</t>
+  </si>
+  <si>
+    <t>PEREKAT JOINT</t>
+  </si>
+  <si>
+    <t>PEREKAT PAT B 25x30 t=0.09</t>
+  </si>
+  <si>
+    <t>PAPER PEREKAT 10x18 L</t>
+  </si>
+  <si>
+    <t>PEREKAT NHTAC</t>
+  </si>
+  <si>
+    <t>PEREKAT 2238FRTV</t>
+  </si>
+  <si>
+    <t>PEREKAT 51618</t>
+  </si>
+  <si>
+    <t>PEREKAT PATHC-DGy, W=22</t>
+  </si>
+  <si>
+    <t>210702 PEREKAT(TESA PEREKAT)</t>
+  </si>
+  <si>
+    <t>PEREKAT PAT</t>
+  </si>
+  <si>
+    <t>PEREKAT ND3132 50 TR</t>
+  </si>
+  <si>
+    <t>PEREKAT PAT070</t>
+  </si>
+  <si>
+    <t>PEREKAT 9393FRTV</t>
+  </si>
+  <si>
+    <t>PEREKAT PATHC-FR</t>
+  </si>
+  <si>
+    <t>430A21992</t>
+  </si>
+  <si>
+    <t>430A21980</t>
+  </si>
+  <si>
+    <t>430A21940</t>
+  </si>
+  <si>
+    <t>430A21970</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>NAMA KOMPONEN</t>
+  </si>
+  <si>
+    <t>NOMOR KOMPONEN</t>
   </si>
 </sst>
 </file>
@@ -55,15 +361,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -71,28 +383,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -409,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101F4D20-C840-4E60-B9D6-4D6577E090FC}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,20 +724,836 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1">
+        <v>430401930</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>430402530</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>430411041</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>430411090</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1">
+        <v>430411040</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1">
+        <v>430401930</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1">
+        <v>430402530</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1">
+        <v>430411041</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1">
+        <v>430411090</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>430411040</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1">
+        <v>430401930</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1">
+        <v>430402530</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <v>430411041</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1">
+        <v>430061090</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="1">
+        <v>430971930</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
